--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Madras\Diploma\Diploma in Data Science\TDS\JAN 2025\Project 2\git\TDS_P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikta\Downloads\TDS_P2_New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51184DE1-E702-4625-AE79-F0F277844547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BC067E-8921-4731-9381-98081485F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="2340" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,58 +379,6 @@
     <t>SELECT SUM(units*price) AS TOTAL
 FROM tickets t
 WHERE t.type like '%gold%'</t>
-  </si>
-  <si>
-    <t># Walking Analysis: Steps Taken Over a Week
-This document presents an analysis of the number of steps I walked each day over a week. The purpose of this analysis is to compare my daily step count with my friends' counts over time and to assess the variation in walking habits.
-## Methodology
-To perform this analysis, I used a fitness app to track my daily steps. I also collected data from my friends, who tracked their steps using the same app. The analysis spans one full week, starting from Monday and ending on Sunday. The data was then aggregated for comparison.
-Key steps in the process:
-1. **Track daily step count** using the app.
-2. **Aggregate data** at the end of the week.
-3. **Compare trends** in steps over time and between friends.
-**Important**: The accuracy of step data may depend on how consistently the device is worn and its ability to track steps.
-## Data Analysis
-### Steps Taken Each Day
-Here is a table summarizing the steps taken on each day of the week:
-| Day       | My Steps | Friend 1 Steps | Friend 2 Steps |
-|-----------|----------|----------------|----------------|
-| Monday    | 8,000    | 7,500          | 8,500          |
-| Tuesday   | 7,200    | 7,800          | 9,000          |
-| Wednesday | 8,500    | 8,200          | 8,700          |
-| Thursday  | 9,000    | 9,200          | 9,300          |
-| Friday    | 7,800    | 8,000          | 7,500          |
-| Saturday  | 10,000   | 10,500         | 9,800          |
-| Sunday    | 6,500    | 6,000          | 7,200          |
-### Comparison with Friends
-Over the week, the average step count for my friends was consistently higher than mine, especially on the weekends. Here are some key observations:
-- **Friend 1** and **Friend 2** showed more consistent walking patterns.
-- **Peak performance**: My highest step count occurred on Saturday.
-&gt; *"It's essential to consider how daily routines and energy levels affect the total number of steps."*
-## Conclusion
-This analysis highlights the fluctuations in daily steps and shows that, while I have an active lifestyle, my friends tend to be more consistent in their walking habits. The analysis can be improved by incorporating more granular data such as average walking speed and distance.
-For more information on fitness tracking and tips, check out [this helpful guide](https://www.example.com/fitness-tips).
-![Alt Text](https://example.com/image.jpg)
-## Code for Visualizing Step Data
-Here is a Python code snippet that can be used to visualize the steps data.
-```python
-import matplotlib.pyplot as plt
-days = ['Monday', 'Tuesday', 'Wednesday', 'Thursday', 'Friday', 'Saturday', 'Sunday']
-my_steps = [8000, 7200, 8500, 9000, 7800, 10000, 6500]
-friend1_steps = [7500, 7800, 8200, 9200, 8000, 10500, 6000]
-friend2_steps = [8500, 9000, 8700, 9300, 7500, 9800, 7200]
-plt.plot(days, my_steps, label="My Steps", marker='o')
-plt.plot(days, friend1_steps, label="Friend 1 Steps", marker='o')
-plt.plot(days, friend2_steps, label="Friend 2 Steps", marker='o')
-plt.xlabel('Day of the Week')
-plt.ylabel('Steps Taken')
-plt.title('Steps Taken Comparison Over a Week')
-plt.legend()
-plt.xticks(rotation=45)
-plt.grid(True)
-plt.show()
-```
-When `step = 3`, that means `step + 2 = 5`</t>
   </si>
   <si>
     <t>FILE UPLOAD</t>
@@ -683,6 +631,52 @@
   </si>
   <si>
     <t>https://3db5-223-178-84-140.ngrok-free.app/</t>
+  </si>
+  <si>
+    <t># Step Count Analysis
+## Introduction
+This document presents an analysis of daily step counts over a one-week period, comparing personal performance over time and with friends.
+## Methodology
+The analysis was conducted using the following steps:
+1. Data collection via fitness trackers
+2. Data preprocessing and cleaning
+3. Statistical analysis
+4. Visualization of results
+## Data Collection
+Step count data was collected using `FitBit` devices worn by participants. The devices automatically sync with the FitBit app, which stores the data in the cloud.
+## Results
+### Personal Performance
+Here's a summary of my daily step counts:
+| Day       | Steps    |
+|-----------|----------|
+| Monday    | 8,532    |
+| Tuesday   | 10,247   |
+| Wednesday | 9,856    |
+| Thursday  | 11,023   |
+| Friday    | 9,741    |
+| Saturday  | 12,568   |
+| Sunday    | 7,895    |
+As we can see, there's significant variation in step counts throughout the week, with the highest count on **Saturday** and the lowest on *Sunday*.
+### Comparison with Friends
+- Alice: Average 10,500 steps/day
+- Bob: Average 9,800 steps/day
+- Charlie: Average 11,200 steps/day
+My average of 9,980 steps/day puts me slightly behind Charlie but ahead of Bob.
+## Visualization
+Here's a visual representation of the weekly step counts:
+Weekly Step Count Graph
+## Code Snippet
+The following Python code was used to calculate the average step count:
+```python
+def calculate_average(steps):
+    return sum(steps) / len(steps)
+weekly_average = calculate_average(daily_steps)
+print(f"Weekly average: {weekly_average:.2f} steps")
+```
+## Conclusion
+&gt; Regular physical activity is crucial for maintaining good health and well-being.
+![Weekly Step Count Graph](url_to_image.jpg)
+This analysis provides valuable insights into personal activity levels and how they compare to peers. For more information on the benefits of walking, visit the [CDC website](https://www.cdc.gov/physicalactivity/walking/index.htm).</t>
   </si>
 </sst>
 </file>
@@ -1047,30 +1041,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1075,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1092,18 +1086,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1114,7 +1108,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1119,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1130,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1141,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1158,18 +1152,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1180,7 +1174,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1185,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1196,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1210,10 +1204,10 @@
         <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +1218,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +1229,7 @@
         <v>91718</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1246,7 +1240,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1257,7 +1251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1268,18 +1262,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1287,10 +1281,10 @@
         <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1298,10 +1292,10 @@
         <v>74</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1312,7 +1306,7 @@
         <v>22557</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1317,7 @@
         <v>6378</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1331,10 +1325,10 @@
         <v>77</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -1342,10 +1336,10 @@
         <v>97</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -1353,10 +1347,10 @@
         <v>78</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -1364,10 +1358,10 @@
         <v>79</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -1375,10 +1369,10 @@
         <v>80</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -1386,10 +1380,10 @@
         <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -1400,7 +1394,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -1408,10 +1402,10 @@
         <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -1419,10 +1413,10 @@
         <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -1430,10 +1424,10 @@
         <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -1441,10 +1435,10 @@
         <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -1452,10 +1446,10 @@
         <v>87</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -1463,10 +1457,10 @@
         <v>88</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -1474,10 +1468,10 @@
         <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -1488,7 +1482,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -1496,10 +1490,10 @@
         <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -1507,10 +1501,10 @@
         <v>92</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -1518,10 +1512,10 @@
         <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -1532,7 +1526,7 @@
         <v>10.1399458</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -1540,10 +1534,10 @@
         <v>95</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -1551,10 +1545,10 @@
         <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -1562,43 +1556,43 @@
         <v>98</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" s="1">
         <v>29658</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1">
         <v>0.47518649486533598</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
@@ -1609,7 +1603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -1620,7 +1614,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -1631,18 +1625,18 @@
         <v>10930</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C53" s="1">
         <v>10829</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>52</v>
       </c>
@@ -1653,18 +1647,18 @@
         <v>53117</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="1">
         <v>27925</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
@@ -1672,10 +1666,10 @@
         <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -1683,10 +1677,10 @@
         <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -1694,7 +1688,7 @@
         <v>105</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikta\Downloads\TDS_P2_New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BC067E-8921-4731-9381-98081485F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CC73B5-7449-4821-897F-B9615F6B5E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3150" yWindow="2340" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,9 +630,6 @@
     <t>https://raw.githubusercontent.com/Telvinvarghese/test/main/email.json</t>
   </si>
   <si>
-    <t>https://3db5-223-178-84-140.ngrok-free.app/</t>
-  </si>
-  <si>
     <t># Step Count Analysis
 ## Introduction
 This document presents an analysis of daily step counts over a one-week period, comparing personal performance over time and with friends.
@@ -677,6 +674,9 @@
 &gt; Regular physical activity is crucial for maintaining good health and well-being.
 ![Weekly Step Count Graph](url_to_image.jpg)
 This analysis provides valuable insights into personal activity levels and how they compare to peers. For more information on the benefits of walking, visit the [CDC website](https://www.cdc.gov/physicalactivity/walking/index.htm).</t>
+  </si>
+  <si>
+    <t>https://b45f-223-178-84-140.ngrok-free.app/</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1270,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>80</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
